--- a/bbCeny.xlsx
+++ b/bbCeny.xlsx
@@ -476,16 +476,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>34.9</v>
+        <v>35.5</v>
       </c>
       <c r="C2" t="n">
         <v>34.9</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3999999999999986</v>
+        <v>0.6</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>44501.60725694444</v>
+        <v>44508.53888888889</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.9</v>
+        <v>36.2</v>
       </c>
       <c r="C3" t="n">
         <v>35.9</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3999999999999986</v>
+        <v>0.3</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>44501.60732638889</v>
+        <v>44508.53888888889</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -533,7 +533,7 @@
         <v>0.3999999999999986</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>44501.60732638889</v>
+        <v>44501.60694444444</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -581,7 +581,7 @@
         <v>0.6000000000000014</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>44501.60738425926</v>
+        <v>44501.60694444444</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -605,7 +605,7 @@
         <v>0.4</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>44502.70621527778</v>
+        <v>44502.70555555556</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -620,16 +620,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>36.9</v>
+        <v>37.2</v>
       </c>
       <c r="C8" t="n">
         <v>36.9</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3999999999999986</v>
+        <v>0.3</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>44501.60744212963</v>
+        <v>44508.53888888889</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -653,7 +653,7 @@
         <v>0.3999999999999986</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>44501.60748842593</v>
+        <v>44501.60694444444</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -668,16 +668,16 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="C10" t="n">
         <v>37.2</v>
       </c>
-      <c r="C10" t="n">
-        <v>36.7</v>
-      </c>
       <c r="D10" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>44504.375</v>
+        <v>44508.53888888889</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>

--- a/bbCeny.xlsx
+++ b/bbCeny.xlsx
@@ -465,7 +465,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Url</t>
+          <t>Url - Staus On: 2021/11/11 12:11</t>
         </is>
       </c>
     </row>
@@ -596,16 +596,16 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="C7" t="n">
         <v>37.9</v>
       </c>
-      <c r="C7" t="n">
-        <v>37.5</v>
-      </c>
       <c r="D7" t="n">
-        <v>0.4</v>
+        <v>-0.4</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>44502.70555555556</v>
+        <v>44509.38611111111</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>

--- a/bbCeny.xlsx
+++ b/bbCeny.xlsx
@@ -465,7 +465,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Url - Staus On: 2021/11/11 12:11</t>
+          <t>Url - Staus On: 2021/11/11 13:05</t>
         </is>
       </c>
     </row>

--- a/bbCeny.xlsx
+++ b/bbCeny.xlsx
@@ -465,7 +465,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Url - Staus On: 2021/11/11 13:05</t>
+          <t>Url - Staus On: 2021/11/11 16:35</t>
         </is>
       </c>
     </row>

--- a/bbCeny.xlsx
+++ b/bbCeny.xlsx
@@ -465,7 +465,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Url - Staus On: 2021/11/11 16:35</t>
+          <t>Last status check on: 2021/11/12 09:38</t>
         </is>
       </c>
     </row>

--- a/bbCeny.xlsx
+++ b/bbCeny.xlsx
@@ -465,7 +465,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Last status check on: 2021/11/12 09:38</t>
+          <t>Last status check on: 2021/11/12 11:59</t>
         </is>
       </c>
     </row>

--- a/bbCeny.xlsx
+++ b/bbCeny.xlsx
@@ -1,40 +1,123 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\peg\z1drv\OneDrive\aaEgp_P2E2\1Drv\qqq_Prj\ppBB\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CE4DFE5-BD08-42CD-80BF-01ECE6651E44}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="2670" yWindow="1260" windowWidth="24750" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BenzinBrno" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="BenzinBrno" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+  <si>
+    <t>Název</t>
+  </si>
+  <si>
+    <t>Cena</t>
+  </si>
+  <si>
+    <t>Old Cena</t>
+  </si>
+  <si>
+    <t>Delta Cena</t>
+  </si>
+  <si>
+    <t>Old Datum</t>
+  </si>
+  <si>
+    <t>Last status check on: 12.11.2021 14:56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TankONO                </t>
+  </si>
+  <si>
+    <t>http://www.tank-ono.cz/cz/index.php?page=cenik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tesco - Mapy           </t>
+  </si>
+  <si>
+    <t>https://bit.ly/3izRnLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Globus                 </t>
+  </si>
+  <si>
+    <t>https://www.globus.cz/brno/cerpaci-stanice-a-myci-linka.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Makro                  </t>
+  </si>
+  <si>
+    <t>https://www.makro.cz/prodejny/brno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shell Olomoucká - Mapy </t>
+  </si>
+  <si>
+    <t>https://mapy.cz/s/megolelafe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOL Olomoucká - Mapy   </t>
+  </si>
+  <si>
+    <t>https://mapy.cz/s/kepegubeve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benzina Albert Modřice </t>
+  </si>
+  <si>
+    <t>https://bit.ly/3ltfpd1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OMV IKEA - Mapy        </t>
+  </si>
+  <si>
+    <t>https://mapy.cz/s/jatejehoda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EuroOil Opuštěná-Mapy  </t>
+  </si>
+  <si>
+    <t>https://mapy.cz/s/cutobofugo</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,94 +132,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -424,265 +457,221 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="58.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Název</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Cena</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Old Cena</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Delta Cena</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Old Datum</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Last status check on: 2021/11/12 11:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TankONO                </t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
         <v>35.5</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>34.9</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>0.6</v>
       </c>
-      <c r="E2" s="2" t="n">
-        <v>44508.53888888889</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>http://www.tank-ono.cz/cz/index.php?page=cenik</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tesco - Mapy           </t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>36.2</v>
-      </c>
-      <c r="C3" t="n">
+      <c r="E2" s="2">
+        <v>44508.538888888892</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="C3">
         <v>35.9</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>0.3</v>
       </c>
-      <c r="E3" s="2" t="n">
-        <v>44508.53888888889</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>https://bit.ly/3izRnLE</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Globus                 </t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.3999999999999986</v>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>44501.60694444444</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>https://www.globus.cz/brno/cerpaci-stanice-a-myci-linka.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Makro                  </t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>36.2</v>
-      </c>
-      <c r="C5" t="n">
+      <c r="E3" s="2">
+        <v>44508.538888888892</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="C4">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="D4">
+        <v>0.39999999999999858</v>
+      </c>
+      <c r="E4" s="2">
+        <v>44501.606944444437</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="C5">
         <v>35.9</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>0.3</v>
       </c>
-      <c r="E5" s="2" t="n">
+      <c r="E5" s="2">
         <v>44504.375</v>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>https://www.makro.cz/prodejny/brno</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Shell Olomoucká - Mapy </t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
         <v>37.5</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>37.5</v>
       </c>
-      <c r="D6" t="n">
-        <v>0.6000000000000014</v>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>44501.60694444444</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>https://mapy.cz/s/megolelafe</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MOL Olomoucká - Mapy   </t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+      <c r="D6">
+        <v>0.60000000000000142</v>
+      </c>
+      <c r="E6" s="2">
+        <v>44501.606944444437</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>37.9</v>
+      </c>
+      <c r="C7">
         <v>37.5</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7">
+        <v>0.4</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44512.589583333327</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="C8">
+        <v>36.9</v>
+      </c>
+      <c r="D8">
+        <v>0.3</v>
+      </c>
+      <c r="E8" s="2">
+        <v>44508.538888888892</v>
+      </c>
+      <c r="F8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9">
         <v>37.9</v>
       </c>
-      <c r="D7" t="n">
-        <v>-0.4</v>
-      </c>
-      <c r="E7" s="2" t="n">
-        <v>44509.38611111111</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>https://mapy.cz/s/kepegubeve</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Benzina Albert Modřice </t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>37.2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>36.9</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="E8" s="2" t="n">
-        <v>44508.53888888889</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>https://bit.ly/3ltfpd1</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">OMV IKEA - Mapy        </t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+      <c r="C9">
         <v>37.9</v>
       </c>
-      <c r="C9" t="n">
-        <v>37.9</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.3999999999999986</v>
-      </c>
-      <c r="E9" s="2" t="n">
-        <v>44501.60694444444</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>https://mapy.cz/s/jatejehoda</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EuroOil Opuštěná-Mapy  </t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+      <c r="D9">
+        <v>0.39999999999999858</v>
+      </c>
+      <c r="E9" s="2">
+        <v>44501.606944444437</v>
+      </c>
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10">
         <v>37.4</v>
       </c>
-      <c r="C10" t="n">
-        <v>37.2</v>
-      </c>
-      <c r="D10" t="n">
+      <c r="C10">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="D10">
         <v>0.2</v>
       </c>
-      <c r="E10" s="2" t="n">
-        <v>44508.53888888889</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>https://mapy.cz/s/cutobofugo</t>
-        </is>
+      <c r="E10" s="2">
+        <v>44508.538888888892</v>
+      </c>
+      <c r="F10" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/bbCeny.xlsx
+++ b/bbCeny.xlsx
@@ -1,123 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\peg\z1drv\OneDrive\aaEgp_P2E2\1Drv\qqq_Prj\ppBB\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CE4DFE5-BD08-42CD-80BF-01ECE6651E44}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="2670" yWindow="1260" windowWidth="24750" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="BenzinBrno" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BenzinBrno" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
-  <si>
-    <t>Název</t>
-  </si>
-  <si>
-    <t>Cena</t>
-  </si>
-  <si>
-    <t>Old Cena</t>
-  </si>
-  <si>
-    <t>Delta Cena</t>
-  </si>
-  <si>
-    <t>Old Datum</t>
-  </si>
-  <si>
-    <t>Last status check on: 12.11.2021 14:56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TankONO                </t>
-  </si>
-  <si>
-    <t>http://www.tank-ono.cz/cz/index.php?page=cenik</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tesco - Mapy           </t>
-  </si>
-  <si>
-    <t>https://bit.ly/3izRnLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Globus                 </t>
-  </si>
-  <si>
-    <t>https://www.globus.cz/brno/cerpaci-stanice-a-myci-linka.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Makro                  </t>
-  </si>
-  <si>
-    <t>https://www.makro.cz/prodejny/brno</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shell Olomoucká - Mapy </t>
-  </si>
-  <si>
-    <t>https://mapy.cz/s/megolelafe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOL Olomoucká - Mapy   </t>
-  </si>
-  <si>
-    <t>https://mapy.cz/s/kepegubeve</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benzina Albert Modřice </t>
-  </si>
-  <si>
-    <t>https://bit.ly/3ltfpd1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OMV IKEA - Mapy        </t>
-  </si>
-  <si>
-    <t>https://mapy.cz/s/jatejehoda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EuroOil Opuštěná-Mapy  </t>
-  </si>
-  <si>
-    <t>https://mapy.cz/s/cutobofugo</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -132,44 +49,94 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -457,221 +424,265 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="58.28515625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Název</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Cena</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Old Cena</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Delta Cena</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Old Datum</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Last status check on: 15.11.2021 13:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TankONO                </t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>35.5</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>34.9</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>0.6</v>
       </c>
-      <c r="E2" s="2">
-        <v>44508.538888888892</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3">
-        <v>36.200000000000003</v>
-      </c>
-      <c r="C3">
+      <c r="E2" s="2" t="n">
+        <v>44508.53888888889</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>http://www.tank-ono.cz/cz/index.php?page=cenik</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tesco - Mapy           </t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="C3" t="n">
         <v>35.9</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>0.3</v>
       </c>
-      <c r="E3" s="2">
-        <v>44508.538888888892</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4">
-        <v>36.299999999999997</v>
-      </c>
-      <c r="C4">
-        <v>36.299999999999997</v>
-      </c>
-      <c r="D4">
-        <v>0.39999999999999858</v>
-      </c>
-      <c r="E4" s="2">
-        <v>44501.606944444437</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5">
-        <v>36.200000000000003</v>
-      </c>
-      <c r="C5">
+      <c r="E3" s="2" t="n">
+        <v>44508.53888888889</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>https://bit.ly/3izRnLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Globus                 </t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3999999999999986</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>44501.60694444444</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>https://www.globus.cz/brno/cerpaci-stanice-a-myci-linka.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Makro                  </t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="C5" t="n">
         <v>35.9</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>0.3</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="2" t="n">
         <v>44504.375</v>
       </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6">
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>https://www.makro.cz/prodejny/brno</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Shell Olomoucká - Mapy </t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="C6" t="n">
         <v>37.5</v>
       </c>
-      <c r="C6">
+      <c r="D6" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>44515.51989583333</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>https://mapy.cz/s/megolelafe</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MOL Olomoucká - Mapy   </t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="C7" t="n">
         <v>37.5</v>
       </c>
-      <c r="D6">
-        <v>0.60000000000000142</v>
-      </c>
-      <c r="E6" s="2">
-        <v>44501.606944444437</v>
-      </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7">
+      <c r="D7" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>44512.58958333333</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>https://mapy.cz/s/kepegubeve</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Benzina Albert Modřice </t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>44508.53888888889</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>https://bit.ly/3ltfpd1</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">OMV IKEA - Mapy        </t>
+        </is>
+      </c>
+      <c r="B9" t="n">
         <v>37.9</v>
       </c>
-      <c r="C7">
-        <v>37.5</v>
-      </c>
-      <c r="D7">
-        <v>0.4</v>
-      </c>
-      <c r="E7" s="2">
-        <v>44512.589583333327</v>
-      </c>
-      <c r="F7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8">
-        <v>37.200000000000003</v>
-      </c>
-      <c r="C8">
-        <v>36.9</v>
-      </c>
-      <c r="D8">
-        <v>0.3</v>
-      </c>
-      <c r="E8" s="2">
-        <v>44508.538888888892</v>
-      </c>
-      <c r="F8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
+      <c r="C9" t="n">
         <v>37.9</v>
       </c>
-      <c r="C9">
-        <v>37.9</v>
-      </c>
-      <c r="D9">
-        <v>0.39999999999999858</v>
-      </c>
-      <c r="E9" s="2">
-        <v>44501.606944444437</v>
-      </c>
-      <c r="F9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10">
+      <c r="D9" t="n">
+        <v>0.3999999999999986</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>44501.60694444444</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>https://mapy.cz/s/jatejehoda</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">EuroOil Opuštěná-Mapy  </t>
+        </is>
+      </c>
+      <c r="B10" t="n">
         <v>37.4</v>
       </c>
-      <c r="C10">
-        <v>37.200000000000003</v>
-      </c>
-      <c r="D10">
+      <c r="C10" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="D10" t="n">
         <v>0.2</v>
       </c>
-      <c r="E10" s="2">
-        <v>44508.538888888892</v>
-      </c>
-      <c r="F10" t="s">
-        <v>23</v>
+      <c r="E10" s="2" t="n">
+        <v>44508.53888888889</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>https://mapy.cz/s/cutobofugo</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/bbCeny.xlsx
+++ b/bbCeny.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Název</t>
   </si>
@@ -31,7 +31,7 @@
     <t>Old Datum</t>
   </si>
   <si>
-    <t>Last status check on: 02.12.2021 10:13</t>
+    <t>Last status check on: 06.12.2021 09:05</t>
   </si>
   <si>
     <t xml:space="preserve">TankONO                </t>
@@ -59,6 +59,24 @@
   </si>
   <si>
     <t xml:space="preserve">EuroOil Opuštěná       </t>
+  </si>
+  <si>
+    <t>-1.4</t>
+  </si>
+  <si>
+    <t>-0.3</t>
+  </si>
+  <si>
+    <t>-0.4</t>
+  </si>
+  <si>
+    <t>2021-12-06 09:05:31</t>
+  </si>
+  <si>
+    <t>2021-12-06 09:05:40</t>
+  </si>
+  <si>
+    <t>2021-12-06 09:05:48</t>
   </si>
   <si>
     <t>http://www.tank-ono.cz/cz/index.php?page=cenik</t>
@@ -163,8 +181,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -491,19 +509,19 @@
         <v>6</v>
       </c>
       <c r="B2">
+        <v>33.5</v>
+      </c>
+      <c r="C2">
         <v>34.9</v>
       </c>
-      <c r="C2">
-        <v>35.5</v>
-      </c>
-      <c r="D2">
-        <v>-0.6</v>
-      </c>
-      <c r="E2" s="2">
-        <v>44529.44758101852</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="D2" t="s">
         <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -511,19 +529,19 @@
         <v>7</v>
       </c>
       <c r="B3">
+        <v>35.9</v>
+      </c>
+      <c r="C3">
         <v>36.2</v>
       </c>
-      <c r="C3">
-        <v>35.9</v>
-      </c>
-      <c r="D3">
-        <v>0.3</v>
-      </c>
-      <c r="E3" s="2">
-        <v>44508.53888888889</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="D3" t="s">
         <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -539,11 +557,11 @@
       <c r="D4">
         <v>0.2</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="3">
         <v>44516.36631944445</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>17</v>
+      <c r="F4" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -559,11 +577,11 @@
       <c r="D5">
         <v>-0.3</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="3">
         <v>44531.45096064815</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>18</v>
+      <c r="F5" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -579,11 +597,11 @@
       <c r="D6">
         <v>0.4</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="3">
         <v>44515.51989583333</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>19</v>
+      <c r="F6" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -599,11 +617,11 @@
       <c r="D7">
         <v>0.4</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="3">
         <v>44512.58958333333</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>20</v>
+      <c r="F7" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -611,19 +629,19 @@
         <v>12</v>
       </c>
       <c r="B8">
+        <v>36.5</v>
+      </c>
+      <c r="C8">
         <v>36.9</v>
       </c>
-      <c r="C8">
-        <v>37.2</v>
-      </c>
-      <c r="D8">
-        <v>-0.3</v>
-      </c>
-      <c r="E8" s="2">
-        <v>44518.4099074074</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>21</v>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -639,11 +657,11 @@
       <c r="D9">
         <v>0.3999999999999986</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="3">
         <v>44501.60694444444</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>22</v>
+      <c r="F9" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -659,11 +677,11 @@
       <c r="D10">
         <v>0.2</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="3">
         <v>44522.38481481482</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>23</v>
+      <c r="F10" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/bbCeny.xlsx
+++ b/bbCeny.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Název</t>
   </si>
@@ -31,7 +31,7 @@
     <t>Old Datum</t>
   </si>
   <si>
-    <t>Last status check on: 06.12.2021 09:05</t>
+    <t>Last status check on: 07.12.2021 10:33</t>
   </si>
   <si>
     <t xml:space="preserve">TankONO                </t>
@@ -61,22 +61,10 @@
     <t xml:space="preserve">EuroOil Opuštěná       </t>
   </si>
   <si>
-    <t>-1.4</t>
-  </si>
-  <si>
-    <t>-0.3</t>
-  </si>
-  <si>
-    <t>-0.4</t>
-  </si>
-  <si>
-    <t>2021-12-06 09:05:31</t>
-  </si>
-  <si>
-    <t>2021-12-06 09:05:40</t>
-  </si>
-  <si>
-    <t>2021-12-06 09:05:48</t>
+    <t>-0.2</t>
+  </si>
+  <si>
+    <t>2021-12-07 10:33:15</t>
   </si>
   <si>
     <t>http://www.tank-ono.cz/cz/index.php?page=cenik</t>
@@ -181,8 +169,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -514,14 +502,14 @@
       <c r="C2">
         <v>34.9</v>
       </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>21</v>
+      <c r="D2">
+        <v>-1.4</v>
+      </c>
+      <c r="E2" s="2">
+        <v>44536.37883101852</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -534,14 +522,14 @@
       <c r="C3">
         <v>36.2</v>
       </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>22</v>
+      <c r="D3">
+        <v>-0.3</v>
+      </c>
+      <c r="E3" s="2">
+        <v>44536.37893518519</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -557,11 +545,11 @@
       <c r="D4">
         <v>0.2</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>44516.36631944445</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>23</v>
+      <c r="F4" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -577,11 +565,11 @@
       <c r="D5">
         <v>-0.3</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>44531.45096064815</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>24</v>
+      <c r="F5" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -597,11 +585,11 @@
       <c r="D6">
         <v>0.4</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>44515.51989583333</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>25</v>
+      <c r="F6" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -609,19 +597,19 @@
         <v>11</v>
       </c>
       <c r="B7">
+        <v>37.7</v>
+      </c>
+      <c r="C7">
         <v>37.9</v>
       </c>
-      <c r="C7">
-        <v>37.5</v>
-      </c>
-      <c r="D7">
-        <v>0.4</v>
-      </c>
-      <c r="E7" s="3">
-        <v>44512.58958333333</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>26</v>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -634,14 +622,14 @@
       <c r="C8">
         <v>36.9</v>
       </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>27</v>
+      <c r="D8">
+        <v>-0.4</v>
+      </c>
+      <c r="E8" s="2">
+        <v>44536.37902777778</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -657,11 +645,11 @@
       <c r="D9">
         <v>0.3999999999999986</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>44501.60694444444</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>28</v>
+      <c r="F9" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -677,11 +665,11 @@
       <c r="D10">
         <v>0.2</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>44522.38481481482</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>29</v>
+      <c r="F10" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/bbCeny.xlsx
+++ b/bbCeny.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Název</t>
   </si>
@@ -31,7 +31,7 @@
     <t>Old Datum</t>
   </si>
   <si>
-    <t>Last status check on: 07.12.2021 10:33</t>
+    <t>Last status check on: 09.12.2021 08:36</t>
   </si>
   <si>
     <t xml:space="preserve">TankONO                </t>
@@ -61,10 +61,16 @@
     <t xml:space="preserve">EuroOil Opuštěná       </t>
   </si>
   <si>
+    <t>-1.4</t>
+  </si>
+  <si>
     <t>-0.2</t>
   </si>
   <si>
-    <t>2021-12-07 10:33:15</t>
+    <t>2021-12-09 08:36:39</t>
+  </si>
+  <si>
+    <t>2021-12-09 08:36:43</t>
   </si>
   <si>
     <t>http://www.tank-ono.cz/cz/index.php?page=cenik</t>
@@ -509,7 +515,7 @@
         <v>44536.37883101852</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -529,7 +535,7 @@
         <v>44536.37893518519</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -549,7 +555,7 @@
         <v>44516.36631944445</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -557,19 +563,19 @@
         <v>9</v>
       </c>
       <c r="B5">
+        <v>34.5</v>
+      </c>
+      <c r="C5">
         <v>35.9</v>
       </c>
-      <c r="C5">
-        <v>36.2</v>
-      </c>
-      <c r="D5">
-        <v>-0.3</v>
-      </c>
-      <c r="E5" s="2">
-        <v>44531.45096064815</v>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -577,19 +583,19 @@
         <v>10</v>
       </c>
       <c r="B6">
+        <v>37.7</v>
+      </c>
+      <c r="C6">
         <v>37.9</v>
       </c>
-      <c r="C6">
-        <v>37.5</v>
-      </c>
-      <c r="D6">
-        <v>0.4</v>
-      </c>
-      <c r="E6" s="2">
-        <v>44515.51989583333</v>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -602,14 +608,14 @@
       <c r="C7">
         <v>37.9</v>
       </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" t="s">
-        <v>16</v>
+      <c r="D7">
+        <v>-0.2</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44537.43975694444</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -629,7 +635,7 @@
         <v>44536.37902777778</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -649,7 +655,7 @@
         <v>44501.60694444444</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -657,19 +663,19 @@
         <v>14</v>
       </c>
       <c r="B10">
+        <v>37.2</v>
+      </c>
+      <c r="C10">
         <v>37.6</v>
       </c>
-      <c r="C10">
-        <v>37.4</v>
-      </c>
       <c r="D10">
-        <v>0.2</v>
+        <v>-0.4</v>
       </c>
       <c r="E10" s="2">
-        <v>44522.38481481482</v>
+        <v>44538.37578703704</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/bbCeny.xlsx
+++ b/bbCeny.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Název</t>
   </si>
@@ -31,7 +31,7 @@
     <t>Old Datum</t>
   </si>
   <si>
-    <t>Last status check on: 09.12.2021 08:36</t>
+    <t>Last status check on: 09.12.2021 14:49</t>
   </si>
   <si>
     <t xml:space="preserve">TankONO                </t>
@@ -59,18 +59,6 @@
   </si>
   <si>
     <t xml:space="preserve">EuroOil Opuštěná       </t>
-  </si>
-  <si>
-    <t>-1.4</t>
-  </si>
-  <si>
-    <t>-0.2</t>
-  </si>
-  <si>
-    <t>2021-12-09 08:36:39</t>
-  </si>
-  <si>
-    <t>2021-12-09 08:36:43</t>
   </si>
   <si>
     <t>http://www.tank-ono.cz/cz/index.php?page=cenik</t>
@@ -515,7 +503,7 @@
         <v>44536.37883101852</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -523,19 +511,19 @@
         <v>7</v>
       </c>
       <c r="B3">
+        <v>34.5</v>
+      </c>
+      <c r="C3">
         <v>35.9</v>
       </c>
-      <c r="C3">
-        <v>36.2</v>
-      </c>
       <c r="D3">
-        <v>-0.3</v>
+        <v>-1.4</v>
       </c>
       <c r="E3" s="2">
-        <v>44536.37893518519</v>
+        <v>44539.6093287037</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -555,7 +543,7 @@
         <v>44516.36631944445</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -568,14 +556,14 @@
       <c r="C5">
         <v>35.9</v>
       </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
+      <c r="D5">
+        <v>-1.4</v>
+      </c>
+      <c r="E5" s="2">
+        <v>44539.35878472222</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -588,14 +576,14 @@
       <c r="C6">
         <v>37.9</v>
       </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
+      <c r="D6">
+        <v>-0.2</v>
+      </c>
+      <c r="E6" s="2">
+        <v>44539.35883101852</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -615,7 +603,7 @@
         <v>44537.43975694444</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -635,7 +623,7 @@
         <v>44536.37902777778</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -655,7 +643,7 @@
         <v>44501.60694444444</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -675,7 +663,7 @@
         <v>44538.37578703704</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/bbCeny.xlsx
+++ b/bbCeny.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Název</t>
   </si>
@@ -31,7 +31,7 @@
     <t>Old Datum</t>
   </si>
   <si>
-    <t>Last status check on: 09.12.2021 14:49</t>
+    <t>Last status check on: 10.12.2021 08:12</t>
   </si>
   <si>
     <t xml:space="preserve">TankONO                </t>
@@ -59,6 +59,12 @@
   </si>
   <si>
     <t xml:space="preserve">EuroOil Opuštěná       </t>
+  </si>
+  <si>
+    <t>-1.6</t>
+  </si>
+  <si>
+    <t>2021-12-10 08:12:56</t>
   </si>
   <si>
     <t>http://www.tank-ono.cz/cz/index.php?page=cenik</t>
@@ -491,19 +497,19 @@
         <v>6</v>
       </c>
       <c r="B2">
+        <v>32.9</v>
+      </c>
+      <c r="C2">
         <v>33.5</v>
       </c>
-      <c r="C2">
-        <v>34.9</v>
-      </c>
       <c r="D2">
-        <v>-1.4</v>
+        <v>-0.6</v>
       </c>
       <c r="E2" s="2">
-        <v>44536.37883101852</v>
+        <v>44540.23331018518</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -523,7 +529,7 @@
         <v>44539.6093287037</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -531,19 +537,19 @@
         <v>8</v>
       </c>
       <c r="B4">
+        <v>34.9</v>
+      </c>
+      <c r="C4">
         <v>36.5</v>
       </c>
-      <c r="C4">
-        <v>36.3</v>
-      </c>
-      <c r="D4">
-        <v>0.2</v>
-      </c>
-      <c r="E4" s="2">
-        <v>44516.36631944445</v>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -563,7 +569,7 @@
         <v>44539.35878472222</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -583,7 +589,7 @@
         <v>44539.35883101852</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -603,7 +609,7 @@
         <v>44537.43975694444</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -623,7 +629,7 @@
         <v>44536.37902777778</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -643,7 +649,7 @@
         <v>44501.60694444444</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -663,7 +669,7 @@
         <v>44538.37578703704</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/bbCeny.xlsx
+++ b/bbCeny.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Název</t>
   </si>
@@ -31,7 +31,7 @@
     <t>Old Datum</t>
   </si>
   <si>
-    <t>Last status check on: 10.12.2021 08:12</t>
+    <t>Last status check on: 13.12.2021 08:38</t>
   </si>
   <si>
     <t xml:space="preserve">TankONO                </t>
@@ -59,12 +59,6 @@
   </si>
   <si>
     <t xml:space="preserve">EuroOil Opuštěná       </t>
-  </si>
-  <si>
-    <t>-1.6</t>
-  </si>
-  <si>
-    <t>2021-12-10 08:12:56</t>
   </si>
   <si>
     <t>http://www.tank-ono.cz/cz/index.php?page=cenik</t>
@@ -509,7 +503,7 @@
         <v>44540.23331018518</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -529,7 +523,7 @@
         <v>44539.6093287037</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -542,14 +536,14 @@
       <c r="C4">
         <v>36.5</v>
       </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
+      <c r="D4">
+        <v>-1.6</v>
+      </c>
+      <c r="E4" s="2">
+        <v>44540.34231481481</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -557,19 +551,19 @@
         <v>9</v>
       </c>
       <c r="B5">
+        <v>34.9</v>
+      </c>
+      <c r="C5">
         <v>34.5</v>
       </c>
-      <c r="C5">
-        <v>35.9</v>
-      </c>
       <c r="D5">
-        <v>-1.4</v>
+        <v>0.4</v>
       </c>
       <c r="E5" s="2">
-        <v>44539.35878472222</v>
+        <v>44543.23340277778</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -577,19 +571,19 @@
         <v>10</v>
       </c>
       <c r="B6">
+        <v>37.71</v>
+      </c>
+      <c r="C6">
         <v>37.7</v>
       </c>
-      <c r="C6">
-        <v>37.9</v>
-      </c>
       <c r="D6">
-        <v>-0.2</v>
+        <v>0.01</v>
       </c>
       <c r="E6" s="2">
-        <v>44539.35883101852</v>
+        <v>44541.23353009259</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -597,19 +591,19 @@
         <v>11</v>
       </c>
       <c r="B7">
+        <v>37.5</v>
+      </c>
+      <c r="C7">
         <v>37.7</v>
-      </c>
-      <c r="C7">
-        <v>37.9</v>
       </c>
       <c r="D7">
         <v>-0.2</v>
       </c>
       <c r="E7" s="2">
-        <v>44537.43975694444</v>
+        <v>44541.23356481481</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -629,7 +623,7 @@
         <v>44536.37902777778</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -649,7 +643,7 @@
         <v>44501.60694444444</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -657,19 +651,19 @@
         <v>14</v>
       </c>
       <c r="B10">
+        <v>36.9</v>
+      </c>
+      <c r="C10">
         <v>37.2</v>
       </c>
-      <c r="C10">
-        <v>37.6</v>
-      </c>
       <c r="D10">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="E10" s="2">
-        <v>44538.37578703704</v>
+        <v>44542.23358796296</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/bbCeny.xlsx
+++ b/bbCeny.xlsx
@@ -31,7 +31,7 @@
     <t>Old Datum</t>
   </si>
   <si>
-    <t>Last status check on: 13.12.2021 08:38</t>
+    <t>Last status check on: 17.12.2021 14:53</t>
   </si>
   <si>
     <t xml:space="preserve">TankONO                </t>
@@ -551,16 +551,16 @@
         <v>9</v>
       </c>
       <c r="B5">
+        <v>34.5</v>
+      </c>
+      <c r="C5">
         <v>34.9</v>
       </c>
-      <c r="C5">
-        <v>34.5</v>
-      </c>
       <c r="D5">
-        <v>0.4</v>
+        <v>-0.4</v>
       </c>
       <c r="E5" s="2">
-        <v>44543.23340277778</v>
+        <v>44546.23341435185</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>18</v>
@@ -571,16 +571,16 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>37.71</v>
+        <v>37.5</v>
       </c>
       <c r="C6">
         <v>37.7</v>
       </c>
       <c r="D6">
-        <v>0.01</v>
+        <v>-0.2</v>
       </c>
       <c r="E6" s="2">
-        <v>44541.23353009259</v>
+        <v>44545.23350694445</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>19</v>
@@ -591,16 +591,16 @@
         <v>11</v>
       </c>
       <c r="B7">
+        <v>37.29</v>
+      </c>
+      <c r="C7">
         <v>37.5</v>
       </c>
-      <c r="C7">
-        <v>37.7</v>
-      </c>
       <c r="D7">
-        <v>-0.2</v>
+        <v>-0.21</v>
       </c>
       <c r="E7" s="2">
-        <v>44541.23356481481</v>
+        <v>44547.2334837963</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>20</v>
@@ -611,16 +611,16 @@
         <v>12</v>
       </c>
       <c r="B8">
+        <v>36.2</v>
+      </c>
+      <c r="C8">
         <v>36.5</v>
       </c>
-      <c r="C8">
-        <v>36.9</v>
-      </c>
       <c r="D8">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="E8" s="2">
-        <v>44536.37902777778</v>
+        <v>44543.60388888889</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>21</v>

--- a/bbCeny.xlsx
+++ b/bbCeny.xlsx
@@ -31,7 +31,7 @@
     <t>Old Datum</t>
   </si>
   <si>
-    <t>Last status check on: 17.12.2021 14:53</t>
+    <t>Last status check on: 20.12.2021 09:08</t>
   </si>
   <si>
     <t xml:space="preserve">TankONO                </t>
@@ -551,16 +551,16 @@
         <v>9</v>
       </c>
       <c r="B5">
+        <v>34.9</v>
+      </c>
+      <c r="C5">
         <v>34.5</v>
       </c>
-      <c r="C5">
-        <v>34.9</v>
-      </c>
       <c r="D5">
-        <v>-0.4</v>
+        <v>0.4</v>
       </c>
       <c r="E5" s="2">
-        <v>44546.23341435185</v>
+        <v>44550.23341435185</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>18</v>

--- a/bbCeny.xlsx
+++ b/bbCeny.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Název</t>
   </si>
@@ -31,7 +31,7 @@
     <t>Old Datum</t>
   </si>
   <si>
-    <t>Last status check on: 20.12.2021 09:08</t>
+    <t>Last status check on: 23.12.2021 08:54</t>
   </si>
   <si>
     <t xml:space="preserve">TankONO                </t>
@@ -59,6 +59,12 @@
   </si>
   <si>
     <t xml:space="preserve">EuroOil Opuštěná       </t>
+  </si>
+  <si>
+    <t>-0.39</t>
+  </si>
+  <si>
+    <t>2021-12-23 08:54:36</t>
   </si>
   <si>
     <t>http://www.tank-ono.cz/cz/index.php?page=cenik</t>
@@ -503,7 +509,7 @@
         <v>44540.23331018518</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -523,7 +529,7 @@
         <v>44539.6093287037</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -543,7 +549,7 @@
         <v>44540.34231481481</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -551,19 +557,19 @@
         <v>9</v>
       </c>
       <c r="B5">
+        <v>34.5</v>
+      </c>
+      <c r="C5">
         <v>34.9</v>
       </c>
-      <c r="C5">
-        <v>34.5</v>
-      </c>
       <c r="D5">
-        <v>0.4</v>
+        <v>-0.4</v>
       </c>
       <c r="E5" s="2">
-        <v>44550.23341435185</v>
+        <v>44553.23341435185</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -571,19 +577,19 @@
         <v>10</v>
       </c>
       <c r="B6">
+        <v>37.29</v>
+      </c>
+      <c r="C6">
         <v>37.5</v>
       </c>
-      <c r="C6">
-        <v>37.7</v>
-      </c>
       <c r="D6">
-        <v>-0.2</v>
+        <v>-0.21</v>
       </c>
       <c r="E6" s="2">
-        <v>44545.23350694445</v>
+        <v>44551.23351851852</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -591,19 +597,19 @@
         <v>11</v>
       </c>
       <c r="B7">
+        <v>36.9</v>
+      </c>
+      <c r="C7">
         <v>37.29</v>
       </c>
-      <c r="C7">
-        <v>37.5</v>
-      </c>
-      <c r="D7">
-        <v>-0.21</v>
-      </c>
-      <c r="E7" s="2">
-        <v>44547.2334837963</v>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -623,7 +629,7 @@
         <v>44543.60388888889</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -643,7 +649,7 @@
         <v>44501.60694444444</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -663,7 +669,7 @@
         <v>44542.23358796296</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/bbCeny.xlsx
+++ b/bbCeny.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>Název</t>
   </si>
@@ -31,7 +31,7 @@
     <t>Old Datum</t>
   </si>
   <si>
-    <t>Last status check on: 23.12.2021 08:54</t>
+    <t>Last status check on: 03.01.2022 13:31</t>
   </si>
   <si>
     <t xml:space="preserve">TankONO                </t>
@@ -61,10 +61,37 @@
     <t xml:space="preserve">EuroOil Opuštěná       </t>
   </si>
   <si>
-    <t>-0.39</t>
-  </si>
-  <si>
-    <t>2021-12-23 08:54:36</t>
+    <t>-0.6</t>
+  </si>
+  <si>
+    <t>-0.59</t>
+  </si>
+  <si>
+    <t>-0.2</t>
+  </si>
+  <si>
+    <t>-0.3</t>
+  </si>
+  <si>
+    <t>-0.4</t>
+  </si>
+  <si>
+    <t>2022-01-03 13:32:04</t>
+  </si>
+  <si>
+    <t>2022-01-03 13:32:08</t>
+  </si>
+  <si>
+    <t>2022-01-03 13:32:12</t>
+  </si>
+  <si>
+    <t>2022-01-03 13:32:13</t>
+  </si>
+  <si>
+    <t>2022-01-03 13:32:17</t>
+  </si>
+  <si>
+    <t>2022-01-03 13:32:20</t>
   </si>
   <si>
     <t>http://www.tank-ono.cz/cz/index.php?page=cenik</t>
@@ -509,7 +536,7 @@
         <v>44540.23331018518</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -517,19 +544,19 @@
         <v>7</v>
       </c>
       <c r="B3">
+        <v>33.9</v>
+      </c>
+      <c r="C3">
         <v>34.5</v>
       </c>
-      <c r="C3">
-        <v>35.9</v>
-      </c>
-      <c r="D3">
-        <v>-1.4</v>
-      </c>
-      <c r="E3" s="2">
-        <v>44539.6093287037</v>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -549,7 +576,7 @@
         <v>44540.34231481481</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -569,7 +596,7 @@
         <v>44553.23341435185</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -577,19 +604,19 @@
         <v>10</v>
       </c>
       <c r="B6">
+        <v>36.7</v>
+      </c>
+      <c r="C6">
         <v>37.29</v>
       </c>
-      <c r="C6">
-        <v>37.5</v>
-      </c>
-      <c r="D6">
-        <v>-0.21</v>
-      </c>
-      <c r="E6" s="2">
-        <v>44551.23351851852</v>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -597,19 +624,19 @@
         <v>11</v>
       </c>
       <c r="B7">
+        <v>36.7</v>
+      </c>
+      <c r="C7">
         <v>36.9</v>
       </c>
-      <c r="C7">
-        <v>37.29</v>
-      </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -617,19 +644,19 @@
         <v>12</v>
       </c>
       <c r="B8">
+        <v>35.9</v>
+      </c>
+      <c r="C8">
         <v>36.2</v>
       </c>
-      <c r="C8">
-        <v>36.5</v>
-      </c>
-      <c r="D8">
-        <v>-0.3</v>
-      </c>
-      <c r="E8" s="2">
-        <v>44543.60388888889</v>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -637,19 +664,19 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>37.9</v>
+        <v>37.5</v>
       </c>
       <c r="C9">
         <v>37.9</v>
       </c>
-      <c r="D9">
-        <v>0.3999999999999986</v>
-      </c>
-      <c r="E9" s="2">
-        <v>44501.60694444444</v>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -657,19 +684,19 @@
         <v>14</v>
       </c>
       <c r="B10">
+        <v>36.5</v>
+      </c>
+      <c r="C10">
         <v>36.9</v>
       </c>
-      <c r="C10">
-        <v>37.2</v>
-      </c>
-      <c r="D10">
-        <v>-0.3</v>
-      </c>
-      <c r="E10" s="2">
-        <v>44542.23358796296</v>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/bbCeny.xlsx
+++ b/bbCeny.xlsx
@@ -1,160 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="BenzinBrno" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BenzinBrno" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
-  <si>
-    <t>Název</t>
-  </si>
-  <si>
-    <t>Cena</t>
-  </si>
-  <si>
-    <t>Old Cena</t>
-  </si>
-  <si>
-    <t>Delta Cena</t>
-  </si>
-  <si>
-    <t>Old Datum</t>
-  </si>
-  <si>
-    <t>Last status check on: 03.01.2022 13:31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TankONO                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tesco                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Globus                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Makro                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shell Olomoucká        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOL Olomoucká          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benzina Albert Modřice </t>
-  </si>
-  <si>
-    <t xml:space="preserve">OMV IKEA               </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EuroOil Opuštěná       </t>
-  </si>
-  <si>
-    <t>-0.6</t>
-  </si>
-  <si>
-    <t>-0.59</t>
-  </si>
-  <si>
-    <t>-0.2</t>
-  </si>
-  <si>
-    <t>-0.3</t>
-  </si>
-  <si>
-    <t>-0.4</t>
-  </si>
-  <si>
-    <t>2022-01-03 13:32:04</t>
-  </si>
-  <si>
-    <t>2022-01-03 13:32:08</t>
-  </si>
-  <si>
-    <t>2022-01-03 13:32:12</t>
-  </si>
-  <si>
-    <t>2022-01-03 13:32:13</t>
-  </si>
-  <si>
-    <t>2022-01-03 13:32:17</t>
-  </si>
-  <si>
-    <t>2022-01-03 13:32:20</t>
-  </si>
-  <si>
-    <t>http://www.tank-ono.cz/cz/index.php?page=cenik</t>
-  </si>
-  <si>
-    <t>https://bit.ly/3izRnLE</t>
-  </si>
-  <si>
-    <t>https://www.globus.cz/brno/cerpaci-stanice-a-myci-linka.html</t>
-  </si>
-  <si>
-    <t>https://www.makro.cz/prodejny/brno</t>
-  </si>
-  <si>
-    <t>https://mapy.cz/s/megolelafe</t>
-  </si>
-  <si>
-    <t>https://mapy.cz/s/kepegubeve</t>
-  </si>
-  <si>
-    <t>https://bit.ly/3ltfpd1</t>
-  </si>
-  <si>
-    <t>https://mapy.cz/s/jatejehoda</t>
-  </si>
-  <si>
-    <t>https://mapy.cz/s/cutobofugo</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -169,42 +49,94 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -492,225 +424,268 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Název</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Cena</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Old Cena</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Delta Cena</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Old Datum</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Last status check on: 06.01.2022 13:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TankONO                </t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>32.9</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>33.5</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>-0.6</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="2" t="n">
         <v>44540.23331018518</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>http://www.tank-ono.cz/cz/index.php?page=cenik</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tesco                  </t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>33.9</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>34.5</v>
       </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
+      <c r="D3" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>44564.56393518519</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>https://bit.ly/3izRnLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Globus                 </t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>34.9</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>36.5</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>-1.6</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="2" t="n">
         <v>44540.34231481481</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>https://www.globus.cz/brno/cerpaci-stanice-a-myci-linka.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Makro                  </t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>34.5</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>34.9</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>-0.4</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="2" t="n">
         <v>44553.23341435185</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>https://www.makro.cz/prodejny/brno</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Shell Olomoucká        </t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>36.7</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>37.29</v>
       </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7">
+      <c r="D6" t="n">
+        <v>-0.59</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>44564.56398148148</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>https://mapy.cz/s/megolelafe</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MOL Olomoucká          </t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>36.7</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>36.9</v>
       </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8">
+      <c r="D7" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>44564.56402777778</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>https://mapy.cz/s/kepegubeve</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Benzina Albert Modřice </t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>35.9</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>36.2</v>
       </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9">
+      <c r="D8" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>44564.56403935186</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>https://bit.ly/3ltfpd1</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">OMV IKEA               </t>
+        </is>
+      </c>
+      <c r="B9" t="n">
         <v>37.5</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>37.9</v>
       </c>
-      <c r="D9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10">
+      <c r="D9" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>44564.56408564815</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>https://mapy.cz/s/jatejehoda</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">EuroOil Opuštěná       </t>
+        </is>
+      </c>
+      <c r="B10" t="n">
         <v>36.5</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>36.9</v>
       </c>
-      <c r="D10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>34</v>
+      <c r="D10" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>44564.56412037037</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>https://mapy.cz/s/cutobofugo</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="F3" r:id="rId2"/>
-    <hyperlink ref="F4" r:id="rId3"/>
-    <hyperlink ref="F5" r:id="rId4"/>
-    <hyperlink ref="F6" r:id="rId5"/>
-    <hyperlink ref="F7" r:id="rId6"/>
-    <hyperlink ref="F8" r:id="rId7"/>
-    <hyperlink ref="F9" r:id="rId8"/>
-    <hyperlink ref="F10" r:id="rId9"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>